--- a/data/schools.xlsx
+++ b/data/schools.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -143,6 +143,93 @@
   </si>
   <si>
     <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t>village_code_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>schools</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>vil_faultdist</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Number of Schools</t>
+  </si>
+  <si>
+    <t>Number of Children 5-15</t>
+  </si>
+  <si>
+    <t>Average Fault Distance</t>
+  </si>
+  <si>
+    <t>Children per School</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>float</t>
@@ -317,86 +404,86 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -410,24 +497,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
